--- a/Chapter 6.xlsx
+++ b/Chapter 6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12300"/>
+    <workbookView windowWidth="22192" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="70">
   <si>
     <t>Chapter 6</t>
   </si>
@@ -938,7 +938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1014,60 +1014,24 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,32 +1044,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1642,15 +1591,16 @@
   <sheetPr/>
   <dimension ref="A1:AJ109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25"/>
   <cols>
-    <col min="17" max="18" width="12.8571428571429"/>
-    <col min="26" max="26" width="9.14285714285714" customWidth="1"/>
-    <col min="27" max="27" width="12.8571428571429"/>
+    <col min="13" max="13" width="12.7964601769912"/>
+    <col min="17" max="18" width="12.858407079646"/>
+    <col min="26" max="26" width="9.14159292035398" customWidth="1"/>
+    <col min="27" max="27" width="12.858407079646"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1677,7 +1627,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" ht="15.75"/>
+    <row r="4" ht="15"/>
     <row r="5" spans="1:34">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
@@ -1691,35 +1641,35 @@
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="31"/>
       <c r="O5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="43"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="31"/>
       <c r="V5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="43"/>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="31"/>
       <c r="AC5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="43"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="31"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5">
@@ -2026,7 +1976,7 @@
         <v>11350</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:34">
+    <row r="10" ht="15" spans="1:34">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>13</v>
@@ -2159,7 +2109,7 @@
         <v>9350</v>
       </c>
     </row>
-    <row r="12" spans="8:34">
+    <row r="12" ht="15" spans="8:34">
       <c r="H12" s="8">
         <v>18</v>
       </c>
@@ -2368,7 +2318,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="15" ht="15.75" spans="1:34">
+    <row r="15" spans="1:34">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
@@ -2462,7 +2412,7 @@
         <v>120</v>
       </c>
       <c r="S16" s="23"/>
-      <c r="T16" s="46">
+      <c r="T16" s="34">
         <f>SUM(T17:T19)</f>
         <v>6840</v>
       </c>
@@ -2478,7 +2428,8 @@
         <v>59.8</v>
       </c>
       <c r="AA16" s="17">
-        <v>7716</v>
+        <f>Y16*Z16</f>
+        <v>7176</v>
       </c>
       <c r="AC16" s="8"/>
       <c r="AD16" s="23"/>
@@ -2537,7 +2488,7 @@
         <v>120</v>
       </c>
       <c r="AG17" s="23"/>
-      <c r="AH17" s="46">
+      <c r="AH17" s="34">
         <f>SUM(AH18:AH21)</f>
         <v>7030</v>
       </c>
@@ -2581,7 +2532,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" ht="15.75" spans="8:34">
+    <row r="19" ht="15" spans="8:34">
       <c r="H19" s="18"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -2657,7 +2608,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="21" ht="15.75" spans="1:34">
+    <row r="21" ht="15" spans="1:34">
       <c r="A21" s="8" t="s">
         <v>11</v>
       </c>
@@ -2718,7 +2669,7 @@
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
     </row>
-    <row r="23" ht="15.75" spans="1:9">
+    <row r="23" ht="15" spans="1:9">
       <c r="A23" s="18" t="s">
         <v>22</v>
       </c>
@@ -2738,14 +2689,14 @@
         <f>E21-E22</f>
         <v>9180</v>
       </c>
-      <c r="I23" s="44"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="15.75"/>
+    <row r="27" ht="15"/>
     <row r="28" spans="1:34">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
@@ -2759,35 +2710,35 @@
       <c r="H28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="31"/>
       <c r="O28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="43"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="31"/>
       <c r="V28" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="43"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="31"/>
       <c r="AC28" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="43"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="31"/>
     </row>
     <row r="29" spans="1:34">
       <c r="A29" s="5" t="s">
@@ -3073,7 +3024,7 @@
         <f>(SUM(AA30:AA31)/800)</f>
         <v>43</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AA32" s="34">
         <f>AA30+AA31</f>
         <v>34400</v>
       </c>
@@ -3131,7 +3082,7 @@
       <c r="R33">
         <v>400</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="34">
         <f>SUM(T34:T36)</f>
         <v>14400</v>
       </c>
@@ -3162,12 +3113,12 @@
         <v>400</v>
       </c>
       <c r="AG33" s="23"/>
-      <c r="AH33" s="46">
+      <c r="AH33" s="34">
         <f>SUM(AH34)</f>
         <v>17600</v>
       </c>
     </row>
-    <row r="34" ht="15.75" spans="1:34">
+    <row r="34" ht="15" spans="1:34">
       <c r="A34" s="18"/>
       <c r="B34" s="10" t="s">
         <v>13</v>
@@ -3240,7 +3191,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="35" ht="15.75" spans="8:34">
+    <row r="35" ht="15" spans="8:34">
       <c r="H35" s="24" t="s">
         <v>27</v>
       </c>
@@ -3443,7 +3394,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="38" ht="15.75" spans="1:34">
+    <row r="38" ht="15" spans="1:34">
       <c r="A38" s="18" t="s">
         <v>18</v>
       </c>
@@ -3518,11 +3469,11 @@
       <c r="I39" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="33">
         <f>SUM(K40:K43)</f>
         <v>740</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="34">
         <f>SUM(M40:M43)</f>
         <v>33040</v>
       </c>
@@ -3542,7 +3493,7 @@
       <c r="W39" t="s">
         <v>17</v>
       </c>
-      <c r="Y39" s="45">
+      <c r="Y39" s="33">
         <f>SUM(Y37:Y38)</f>
         <v>940</v>
       </c>
@@ -3570,7 +3521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="40" ht="15.75" spans="8:34">
+    <row r="40" ht="15" spans="8:34">
       <c r="H40" s="8"/>
       <c r="K40">
         <v>200</v>
@@ -3617,17 +3568,17 @@
         <v>18</v>
       </c>
       <c r="AE40" s="23"/>
-      <c r="AF40" s="50">
+      <c r="AF40" s="35">
         <f>SUM(AF41:AF44)</f>
         <v>740</v>
       </c>
       <c r="AG40" s="23"/>
-      <c r="AH40" s="46">
+      <c r="AH40" s="34">
         <f>SUM(AH41:AH44)</f>
         <v>35440</v>
       </c>
     </row>
-    <row r="41" ht="15.75" spans="1:34">
+    <row r="41" ht="15" spans="1:34">
       <c r="A41" s="14"/>
       <c r="B41" s="15" t="s">
         <v>4</v>
@@ -3656,11 +3607,11 @@
       <c r="P41" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="33">
         <f>SUM(R42:R44)</f>
         <v>740</v>
       </c>
-      <c r="T41" s="46">
+      <c r="T41" s="34">
         <f>SUM(T42:T44)</f>
         <v>35440</v>
       </c>
@@ -3756,7 +3707,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="43" ht="15.75" spans="1:34">
+    <row r="43" ht="15" spans="1:34">
       <c r="A43" s="8" t="s">
         <v>21</v>
       </c>
@@ -3819,7 +3770,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="44" ht="15.75" spans="1:34">
+    <row r="44" ht="15" spans="1:34">
       <c r="A44" s="18" t="s">
         <v>22</v>
       </c>
@@ -3875,313 +3826,314 @@
         <v>31</v>
       </c>
     </row>
+    <row r="48" ht="15"/>
     <row r="49" spans="1:8">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27" t="s">
+      <c r="A49" s="14"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="28"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30" t="s">
+      <c r="B50" s="23"/>
+      <c r="C50" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="31" t="s">
+      <c r="F50" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="32" t="s">
+      <c r="G50" s="26"/>
+      <c r="H50" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:8">
-      <c r="A51" s="33" t="s">
+    <row r="51" ht="15" spans="1:8">
+      <c r="A51" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="37"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="35">
+      <c r="B52" s="28"/>
+      <c r="C52" s="23">
         <v>335</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="23">
         <v>90</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="23">
         <v>98</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="29">
         <v>90</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="37">
+      <c r="G52" s="29"/>
+      <c r="H52" s="17">
         <f>C52*F52</f>
         <v>30150</v>
       </c>
-      <c r="J52" s="25" t="s">
+      <c r="J52" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="15">
         <f>E74-H63</f>
         <v>19163</v>
       </c>
-      <c r="L52" s="28"/>
-    </row>
-    <row r="53" ht="15.75" spans="1:12">
-      <c r="A53" s="33" t="s">
+      <c r="L52" s="16"/>
+    </row>
+    <row r="53" ht="15" spans="1:12">
+      <c r="A53" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35">
+      <c r="B53" s="28"/>
+      <c r="C53" s="23">
         <v>250</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="23">
         <v>111</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="23">
         <v>100</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="29">
         <v>100</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37">
+      <c r="G53" s="29"/>
+      <c r="H53" s="17">
         <f t="shared" ref="H53:H62" si="5">C53*F53</f>
         <v>25000</v>
       </c>
-      <c r="J53" s="47" t="s">
+      <c r="J53" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K53" s="48"/>
-      <c r="L53" s="49">
+      <c r="K53" s="11"/>
+      <c r="L53" s="19">
         <v>19163</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="33" t="s">
+      <c r="A54" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35">
+      <c r="B54" s="28"/>
+      <c r="C54" s="23">
         <v>316</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="23">
         <v>86</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="23">
         <v>95</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="29">
         <v>86</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37">
+      <c r="G54" s="29"/>
+      <c r="H54" s="17">
         <f t="shared" si="5"/>
         <v>27176</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35">
+      <c r="B55" s="28"/>
+      <c r="C55" s="23">
         <v>194</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="23">
         <v>52</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="23">
         <v>41</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="29">
         <v>41</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37">
+      <c r="G55" s="29"/>
+      <c r="H55" s="17">
         <f t="shared" si="5"/>
         <v>7954</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37">
+      <c r="B56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35">
+      <c r="B57" s="28"/>
+      <c r="C57" s="23">
         <v>470</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="23">
         <v>150</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="23">
         <v>125</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="29">
         <v>125</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="37">
+      <c r="G57" s="29"/>
+      <c r="H57" s="17">
         <f t="shared" si="5"/>
         <v>58750</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35">
+      <c r="B58" s="28"/>
+      <c r="C58" s="23">
         <v>281</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="23">
         <v>93</v>
       </c>
-      <c r="E58" s="35">
+      <c r="E58" s="23">
         <v>84</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="29">
         <v>84</v>
       </c>
-      <c r="G58" s="36"/>
-      <c r="H58" s="37">
+      <c r="G58" s="29"/>
+      <c r="H58" s="17">
         <f t="shared" si="5"/>
         <v>23604</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35">
+      <c r="B59" s="28"/>
+      <c r="C59" s="23">
         <v>202</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="23">
         <v>310</v>
       </c>
-      <c r="E59" s="35">
+      <c r="E59" s="23">
         <v>322</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="29">
         <v>310</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="37">
+      <c r="G59" s="29"/>
+      <c r="H59" s="17">
         <f t="shared" si="5"/>
         <v>62620</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="37">
+      <c r="B60" s="28"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B61" s="34"/>
-      <c r="C61" s="35">
+      <c r="B61" s="28"/>
+      <c r="C61" s="23">
         <v>175</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="23">
         <v>70</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="23">
         <v>84</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="29">
         <v>70</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="37">
+      <c r="G61" s="29"/>
+      <c r="H61" s="17">
         <f t="shared" si="5"/>
         <v>12250</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B62" s="34"/>
-      <c r="C62" s="35">
+      <c r="B62" s="28"/>
+      <c r="C62" s="23">
         <v>160</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="23">
         <v>97</v>
       </c>
-      <c r="E62" s="35">
+      <c r="E62" s="23">
         <v>105</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="29">
         <v>97</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="37">
+      <c r="G62" s="29"/>
+      <c r="H62" s="17">
         <f t="shared" si="5"/>
         <v>15520</v>
       </c>
     </row>
-    <row r="63" ht="15.75" spans="1:8">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41">
+    <row r="63" ht="15" spans="1:8">
+      <c r="A63" s="18"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="13">
         <f>SUM(H52:H62)</f>
         <v>263024</v>
       </c>
@@ -4194,7 +4146,7 @@
     </row>
     <row r="65" spans="4:4">
       <c r="D65">
-        <f t="shared" ref="D65:D72" si="6">C53*D53</f>
+        <f t="shared" ref="D65:D74" si="6">C53*D53</f>
         <v>27750</v>
       </c>
     </row>
@@ -4242,16 +4194,16 @@
     </row>
     <row r="73" spans="4:4">
       <c r="D73">
-        <f>C61*D61</f>
+        <f t="shared" si="6"/>
         <v>12250</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="D74">
-        <f>C62*D62</f>
+        <f t="shared" si="6"/>
         <v>15520</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="33">
         <f>SUM(D64:D74)</f>
         <v>282187</v>
       </c>
@@ -4261,36 +4213,37 @@
         <v>50</v>
       </c>
     </row>
+    <row r="77" ht="15"/>
     <row r="78" spans="1:11">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15">
         <v>2010</v>
       </c>
-      <c r="D78" s="26">
+      <c r="D78" s="15">
         <v>2011</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="16">
         <v>2012</v>
       </c>
-      <c r="G78" s="25" t="s">
+      <c r="G78" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26">
+      <c r="H78" s="15"/>
+      <c r="I78" s="15">
         <v>2010</v>
       </c>
-      <c r="J78" s="26">
+      <c r="J78" s="15">
         <v>2011</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="16">
         <v>2012</v>
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="51" t="s">
+      <c r="A79" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C79">
@@ -4299,10 +4252,10 @@
       <c r="D79">
         <v>955000</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="17">
         <v>790000</v>
       </c>
-      <c r="G79" s="51" t="s">
+      <c r="G79" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I79">
@@ -4311,22 +4264,22 @@
       <c r="J79">
         <v>275000</v>
       </c>
-      <c r="K79" s="52">
+      <c r="K79" s="17">
         <v>250000</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="52"/>
-      <c r="G80" s="51" t="s">
+      <c r="E80" s="17"/>
+      <c r="G80" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K80" s="52"/>
+      <c r="K80" s="17"/>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="51" t="s">
+      <c r="A81" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C81">
@@ -4335,8 +4288,8 @@
       <c r="D81">
         <v>50000</v>
       </c>
-      <c r="E81" s="52"/>
-      <c r="G81" s="51" t="s">
+      <c r="E81" s="17"/>
+      <c r="G81" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I81">
@@ -4345,93 +4298,93 @@
       <c r="J81">
         <v>-50000</v>
       </c>
-      <c r="K81" s="52"/>
+      <c r="K81" s="17"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="51" t="s">
+      <c r="A82" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D82">
         <v>20000</v>
       </c>
-      <c r="E82" s="52">
+      <c r="E82" s="17">
         <v>-20000</v>
       </c>
-      <c r="G82" s="51" t="s">
+      <c r="G82" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J82">
         <v>-20000</v>
       </c>
-      <c r="K82" s="52">
+      <c r="K82" s="17">
         <v>20000</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:11">
-      <c r="A83" s="47" t="s">
+    <row r="83" ht="15" spans="1:11">
+      <c r="A83" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11">
         <f>C79+C81</f>
         <v>675000</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="11">
         <f>D79+D81+D82</f>
         <v>1025000</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="19">
         <f>E79+E82</f>
         <v>770000</v>
       </c>
-      <c r="G83" s="47" t="s">
+      <c r="G83" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H83" s="48"/>
-      <c r="I83" s="48">
+      <c r="H83" s="11"/>
+      <c r="I83" s="11">
         <f>I79+I81</f>
         <v>318000</v>
       </c>
-      <c r="J83" s="48">
+      <c r="J83" s="11">
         <f>J79+J81+J82</f>
         <v>205000</v>
       </c>
-      <c r="K83" s="49">
+      <c r="K83" s="19">
         <f>K79+K82</f>
         <v>270000</v>
       </c>
     </row>
-    <row r="84" ht="15.75"/>
+    <row r="84" ht="15"/>
     <row r="85" spans="1:11">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15">
         <v>2010</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="15">
         <v>2011</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E85" s="16">
         <v>2012</v>
       </c>
-      <c r="G85" s="25" t="s">
+      <c r="G85" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H85" s="26"/>
-      <c r="I85" s="26">
+      <c r="H85" s="15"/>
+      <c r="I85" s="15">
         <v>2010</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J85" s="15">
         <v>2011</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K85" s="16">
         <v>2012</v>
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C86">
@@ -4440,10 +4393,10 @@
       <c r="D86">
         <v>1360000</v>
       </c>
-      <c r="E86" s="52">
+      <c r="E86" s="17">
         <v>1230000</v>
       </c>
-      <c r="G86" s="51" t="s">
+      <c r="G86" s="8" t="s">
         <v>52</v>
       </c>
       <c r="I86">
@@ -4452,84 +4405,82 @@
       <c r="J86">
         <v>1580000</v>
       </c>
-      <c r="K86" s="52">
+      <c r="K86" s="17">
         <v>1245000</v>
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E87" s="52"/>
-      <c r="G87" s="51" t="s">
+      <c r="E87" s="17"/>
+      <c r="G87" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K87" s="52"/>
+      <c r="K87" s="17"/>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="51" t="s">
+      <c r="A88" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C88">
         <v>50000</v>
       </c>
-      <c r="D88"/>
-      <c r="E88" s="52"/>
-      <c r="G88" s="51" t="s">
+      <c r="E88" s="17"/>
+      <c r="G88" s="8" t="s">
         <v>54</v>
       </c>
       <c r="I88">
         <v>50000</v>
       </c>
-      <c r="J88"/>
-      <c r="K88" s="52"/>
+      <c r="K88" s="17"/>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="51" t="s">
+      <c r="A89" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D89">
         <v>-20000</v>
       </c>
-      <c r="E89" s="52"/>
-      <c r="G89" s="51" t="s">
+      <c r="E89" s="17"/>
+      <c r="G89" s="8" t="s">
         <v>55</v>
       </c>
       <c r="J89">
         <v>-20000</v>
       </c>
-      <c r="K89" s="52"/>
-    </row>
-    <row r="90" ht="15.75" spans="1:11">
-      <c r="A90" s="47" t="s">
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" ht="15" spans="1:11">
+      <c r="A90" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11">
         <f>C86+C88</f>
         <v>1297000</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="11">
         <f>D86+D88+D89</f>
         <v>1340000</v>
       </c>
-      <c r="E90" s="49">
+      <c r="E90" s="19">
         <f>E86+E89</f>
         <v>1230000</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G90" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H90" s="48"/>
-      <c r="I90" s="48">
+      <c r="H90" s="11"/>
+      <c r="I90" s="11">
         <f>I86+I88</f>
         <v>1437000</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="11">
         <f>J86+J88+J89</f>
         <v>1560000</v>
       </c>
-      <c r="K90" s="49">
+      <c r="K90" s="19">
         <f>K86+K89</f>
         <v>1245000</v>
       </c>
@@ -4539,22 +4490,23 @@
         <v>59</v>
       </c>
     </row>
+    <row r="94" ht="15"/>
     <row r="95" spans="1:6">
-      <c r="A95" s="25"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26" t="s">
+      <c r="A95" s="14"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E95" s="26" t="s">
+      <c r="E95" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="51" t="s">
+      <c r="A96" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B96" t="s">
@@ -4566,13 +4518,13 @@
       <c r="E96">
         <v>15</v>
       </c>
-      <c r="F96" s="52">
+      <c r="F96" s="17">
         <f>D96*E96</f>
         <v>300000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="51" t="s">
+      <c r="A97" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B97" t="s">
@@ -4584,13 +4536,13 @@
       <c r="E97">
         <v>18</v>
       </c>
-      <c r="F97" s="52">
+      <c r="F97" s="17">
         <f>D97*E97</f>
         <v>504000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B98" t="s">
@@ -4602,13 +4554,13 @@
       <c r="E98">
         <v>22</v>
       </c>
-      <c r="F98" s="52">
+      <c r="F98" s="17">
         <f>D98*E98</f>
         <v>660000</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B99" t="s">
@@ -4620,13 +4572,13 @@
       <c r="E99">
         <v>24</v>
       </c>
-      <c r="F99" s="52">
+      <c r="F99" s="17">
         <f>D99*E99</f>
         <v>480000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="51" t="s">
+      <c r="A100" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B100" t="s">
@@ -4638,90 +4590,76 @@
       <c r="E100">
         <v>27</v>
       </c>
-      <c r="F100" s="52">
+      <c r="F100" s="17">
         <f>D100*E100</f>
         <v>891000</v>
       </c>
     </row>
-    <row r="101" ht="15.75" spans="1:6">
-      <c r="A101" s="47"/>
-      <c r="B101" s="48" t="s">
+    <row r="101" ht="15" spans="1:6">
+      <c r="A101" s="18"/>
+      <c r="B101" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="48"/>
-      <c r="F101" s="53">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13">
         <f>SUM(F96:F100)</f>
         <v>2835000</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="54" t="s">
+    <row r="104" spans="1:14">
+      <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="55"/>
-      <c r="F104" s="54" t="s">
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="31"/>
+      <c r="F104" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="55"/>
-      <c r="K104" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L104" s="27"/>
-      <c r="M104" s="27"/>
-      <c r="N104" s="55"/>
-      <c r="P104" s="25" t="s">
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="31"/>
+      <c r="K104" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="28"/>
-    </row>
-    <row r="105" spans="1:18">
-      <c r="A105" s="51"/>
-      <c r="B105" s="30" t="s">
+      <c r="L104" s="15"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="36"/>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="8"/>
+      <c r="B105" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F105" s="51"/>
-      <c r="G105" s="30" t="s">
+      <c r="F105" s="8"/>
+      <c r="G105" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H105" s="30" t="s">
+      <c r="H105" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I105" s="32" t="s">
+      <c r="I105" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="K105" s="51"/>
-      <c r="L105" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M105" s="30" t="s">
+      <c r="K105" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N105" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="P105" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="R105" s="52">
+      <c r="M105" s="17">
         <f>F101/SUM(D96:D100)</f>
         <v>21.6412213740458</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
-      <c r="A106" s="51" t="s">
+      <c r="N105" s="37"/>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B106">
@@ -4730,11 +4668,11 @@
       <c r="C106">
         <v>24</v>
       </c>
-      <c r="D106" s="52">
+      <c r="D106" s="17">
         <f>B106*C106</f>
         <v>48000</v>
       </c>
-      <c r="F106" s="51" t="s">
+      <c r="F106" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G106">
@@ -4743,33 +4681,21 @@
       <c r="H106">
         <v>15</v>
       </c>
-      <c r="I106" s="52">
+      <c r="I106" s="17">
         <f>G106*H106</f>
         <v>300000</v>
       </c>
-      <c r="K106" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="L106">
-        <v>20000</v>
-      </c>
-      <c r="M106">
-        <v>15</v>
-      </c>
-      <c r="N106" s="52">
-        <f>L106*M106</f>
-        <v>300000</v>
-      </c>
-      <c r="P106" s="51" t="s">
+      <c r="K106" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R106" s="52">
-        <f>35000*R105</f>
+      <c r="M106" s="17">
+        <f>35000*M105</f>
         <v>757442.748091603</v>
       </c>
-    </row>
-    <row r="107" ht="15.75" spans="1:18">
-      <c r="A107" s="51" t="s">
+      <c r="N106" s="37"/>
+    </row>
+    <row r="107" ht="15" spans="1:14">
+      <c r="A107" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B107">
@@ -4778,11 +4704,11 @@
       <c r="C107">
         <v>27</v>
       </c>
-      <c r="D107" s="52">
+      <c r="D107" s="17">
         <f>B107*C107</f>
         <v>891000</v>
       </c>
-      <c r="F107" s="51" t="s">
+      <c r="F107" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G107">
@@ -4791,86 +4717,66 @@
       <c r="H107">
         <v>18</v>
       </c>
-      <c r="I107" s="52">
+      <c r="I107" s="17">
         <f>G107*H107</f>
         <v>270000</v>
       </c>
-      <c r="K107" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="L107">
-        <v>15000</v>
-      </c>
-      <c r="M107">
-        <v>18</v>
-      </c>
-      <c r="N107" s="52">
-        <f>L107*M107</f>
-        <v>270000</v>
-      </c>
-      <c r="P107" s="47" t="s">
+      <c r="K107" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Q107" s="48"/>
-      <c r="R107" s="49">
-        <f>$F$101-R106</f>
+      <c r="L107" s="11"/>
+      <c r="M107" s="19">
+        <f>$F$101-M106</f>
         <v>2077557.2519084</v>
       </c>
+      <c r="N107" s="37"/>
     </row>
     <row r="108" spans="1:14">
-      <c r="A108" s="51" t="s">
+      <c r="A108" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D108" s="52">
+      <c r="D108" s="17">
         <f>D106+D107</f>
         <v>939000</v>
       </c>
-      <c r="F108" s="51" t="s">
+      <c r="F108" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I108" s="52">
+      <c r="I108" s="17">
         <f>I106+I107</f>
         <v>570000</v>
       </c>
-      <c r="K108" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="N108" s="52">
-        <f>N106+N107</f>
-        <v>570000</v>
-      </c>
-    </row>
-    <row r="109" ht="15.75" spans="1:14">
-      <c r="A109" s="47" t="s">
+      <c r="K108" s="37"/>
+      <c r="L108" s="38"/>
+      <c r="M108" s="38"/>
+      <c r="N108" s="37"/>
+    </row>
+    <row r="109" ht="15" spans="1:14">
+      <c r="A109" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B109" s="48">
+      <c r="B109" s="11">
         <f>$F$101-D108</f>
         <v>1896000</v>
       </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49"/>
-      <c r="F109" s="47" t="s">
+      <c r="C109" s="11"/>
+      <c r="D109" s="19"/>
+      <c r="F109" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G109" s="48">
+      <c r="G109" s="11">
         <f>$F$101-I108</f>
         <v>2265000</v>
       </c>
-      <c r="H109" s="48"/>
-      <c r="I109" s="49"/>
-      <c r="K109" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="L109" s="48">
-        <f>$F$101-N108</f>
-        <v>2265000</v>
-      </c>
-      <c r="M109" s="48"/>
-      <c r="N109" s="49"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="19"/>
+      <c r="K109" s="37"/>
+      <c r="L109" s="37"/>
+      <c r="M109" s="37"/>
+      <c r="N109" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="O5:T5"/>
     <mergeCell ref="V5:AA5"/>
@@ -4907,7 +4813,6 @@
     <mergeCell ref="F62:G62"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="F104:I104"/>
-    <mergeCell ref="K104:N104"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
